--- a/活頁簿1 (自動儲存).xlsx
+++ b/活頁簿1 (自動儲存).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing.Huang\Videos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Documents\GitHub\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1694C2-A386-4110-9767-401FA495DA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12372" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="範例1_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,6 @@
     <sheet name="範例2_3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t>Operation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,13 +85,41 @@
   </si>
   <si>
     <t>Job 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -116,7 +144,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,8 +193,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -226,13 +260,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,47 +343,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,11 +688,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G5:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="G5:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -595,9 +702,9 @@
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G5" s="2" t="s">
-        <v>0</v>
+    <row r="5" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G5" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>4</v>
@@ -608,10 +715,20 @@
       <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="L5" s="12"/>
+      <c r="M5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G6" s="3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H6" s="4">
         <v>8</v>
@@ -622,10 +739,22 @@
       <c r="J6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="L6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G7" s="5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H7" s="4">
         <v>15</v>
@@ -636,10 +765,22 @@
       <c r="J7" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="L7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G8" s="6" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H8" s="4">
         <v>9</v>
@@ -650,6 +791,62 @@
       <c r="J8" s="4">
         <v>19</v>
       </c>
+      <c r="L8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="15" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -659,11 +856,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="G4:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G4" sqref="G4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -705,11 +902,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="L4:BF15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4:BF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -721,276 +918,710 @@
   </cols>
   <sheetData>
     <row r="4" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="P4" s="7">
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="4">
         <v>1</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="4">
         <v>2</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="4">
         <v>3</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="4">
         <v>4</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="4">
         <v>5</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="4">
         <v>6</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="4">
         <v>7</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="4">
         <v>8</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="4">
         <v>9</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="4">
         <v>10</v>
       </c>
-      <c r="Z4" s="7">
+      <c r="Z4" s="4">
         <v>11</v>
       </c>
-      <c r="AA4" s="7">
+      <c r="AA4" s="4">
         <v>12</v>
       </c>
-      <c r="AB4" s="7">
+      <c r="AB4" s="4">
         <v>13</v>
       </c>
-      <c r="AC4" s="7">
+      <c r="AC4" s="4">
         <v>14</v>
       </c>
-      <c r="AD4" s="7">
+      <c r="AD4" s="4">
         <v>15</v>
       </c>
-      <c r="AE4" s="7">
+      <c r="AE4" s="4">
         <v>16</v>
       </c>
-      <c r="AF4" s="7">
+      <c r="AF4" s="4">
         <v>17</v>
       </c>
-      <c r="AG4" s="7">
+      <c r="AG4" s="4">
         <v>18</v>
       </c>
-      <c r="AH4" s="7">
+      <c r="AH4" s="4">
         <v>19</v>
       </c>
-      <c r="AI4" s="7">
+      <c r="AI4" s="4">
         <v>20</v>
       </c>
-      <c r="AJ4" s="7">
+      <c r="AJ4" s="4">
         <v>21</v>
       </c>
-      <c r="AK4" s="7">
+      <c r="AK4" s="4">
         <v>22</v>
       </c>
-      <c r="AL4" s="7">
+      <c r="AL4" s="4">
         <v>23</v>
       </c>
-      <c r="AM4" s="7">
+      <c r="AM4" s="4">
         <v>24</v>
       </c>
-      <c r="AN4" s="7">
+      <c r="AN4" s="4">
         <v>25</v>
       </c>
-      <c r="AO4" s="7">
+      <c r="AO4" s="4">
         <v>26</v>
       </c>
-      <c r="AP4" s="7">
+      <c r="AP4" s="4">
         <v>27</v>
       </c>
-      <c r="AQ4" s="7">
+      <c r="AQ4" s="4">
         <v>28</v>
       </c>
-      <c r="AR4" s="7">
+      <c r="AR4" s="4">
         <v>29</v>
       </c>
-      <c r="AS4" s="7">
+      <c r="AS4" s="4">
         <v>30</v>
       </c>
-      <c r="AT4" s="7">
+      <c r="AT4" s="4">
         <v>31</v>
       </c>
-      <c r="AU4" s="7">
+      <c r="AU4" s="4">
         <v>32</v>
       </c>
-      <c r="AV4" s="7">
+      <c r="AV4" s="4">
         <v>33</v>
       </c>
-      <c r="AW4" s="7">
+      <c r="AW4" s="4">
         <v>34</v>
       </c>
-      <c r="AX4" s="7">
+      <c r="AX4" s="4">
         <v>35</v>
       </c>
-      <c r="AY4" s="7">
+      <c r="AY4" s="4">
         <v>36</v>
       </c>
-      <c r="AZ4" s="7">
+      <c r="AZ4" s="4">
         <v>37</v>
       </c>
-      <c r="BA4" s="7">
+      <c r="BA4" s="4">
         <v>38</v>
       </c>
-      <c r="BB4" s="7">
+      <c r="BB4" s="4">
         <v>39</v>
       </c>
-      <c r="BC4" s="7">
+      <c r="BC4" s="4">
         <v>40</v>
       </c>
-      <c r="BD4" s="7">
+      <c r="BD4" s="4">
         <v>41</v>
       </c>
-      <c r="BE4" s="7">
+      <c r="BE4" s="4">
         <v>42</v>
       </c>
-      <c r="BF4" s="7">
+      <c r="BF4" s="4">
         <v>43</v>
       </c>
     </row>
+    <row r="5" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="19"/>
+      <c r="BB5" s="19"/>
+      <c r="BC5" s="19"/>
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19"/>
+      <c r="BF5" s="19"/>
+    </row>
+    <row r="6" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="19"/>
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
+    </row>
     <row r="7" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="P7" s="9" t="s">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AI7" s="10" t="s">
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="11"/>
-      <c r="AL7" s="11"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="14" t="s">
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="23"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="15"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
-      <c r="AZ7" s="15"/>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="15"/>
-      <c r="BC7" s="15"/>
-      <c r="BD7" s="15"/>
-      <c r="BE7" s="15"/>
-      <c r="BF7" s="16"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="22"/>
+      <c r="AS7" s="22"/>
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="22"/>
+      <c r="AV7" s="22"/>
+      <c r="AW7" s="22"/>
+      <c r="AX7" s="22"/>
+      <c r="AY7" s="22"/>
+      <c r="AZ7" s="22"/>
+      <c r="BA7" s="22"/>
+      <c r="BB7" s="22"/>
+      <c r="BC7" s="22"/>
+      <c r="BD7" s="22"/>
+      <c r="BE7" s="22"/>
+      <c r="BF7" s="22"/>
+    </row>
+    <row r="8" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19"/>
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19"/>
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="19"/>
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="19"/>
+      <c r="BB8" s="19"/>
+      <c r="BC8" s="19"/>
+      <c r="BD8" s="19"/>
+      <c r="BE8" s="19"/>
+      <c r="BF8" s="19"/>
+    </row>
+    <row r="9" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19"/>
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19"/>
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19"/>
+    </row>
+    <row r="10" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+      <c r="AQ10" s="19"/>
+      <c r="AR10" s="19"/>
+      <c r="AS10" s="19"/>
+      <c r="AT10" s="19"/>
+      <c r="AU10" s="19"/>
+      <c r="AV10" s="19"/>
+      <c r="AW10" s="19"/>
+      <c r="AX10" s="19"/>
+      <c r="AY10" s="19"/>
+      <c r="AZ10" s="19"/>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="19"/>
+      <c r="BC10" s="19"/>
+      <c r="BD10" s="19"/>
+      <c r="BE10" s="19"/>
+      <c r="BF10" s="19"/>
     </row>
     <row r="11" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="P11" s="10" t="s">
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="12"/>
-      <c r="Y11" s="14" t="s">
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="16"/>
-      <c r="AR11" s="18" t="s">
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="19"/>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="19"/>
-      <c r="BB11" s="19"/>
-      <c r="BC11" s="20"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="21"/>
+      <c r="AU11" s="21"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21"/>
+      <c r="AY11" s="21"/>
+      <c r="AZ11" s="21"/>
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="19"/>
+      <c r="BE11" s="19"/>
+      <c r="BF11" s="19"/>
+    </row>
+    <row r="12" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+      <c r="AQ12" s="19"/>
+      <c r="AR12" s="19"/>
+      <c r="AS12" s="19"/>
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="19"/>
+      <c r="BB12" s="19"/>
+      <c r="BC12" s="19"/>
+      <c r="BD12" s="19"/>
+      <c r="BE12" s="19"/>
+      <c r="BF12" s="19"/>
+    </row>
+    <row r="13" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+      <c r="AQ13" s="19"/>
+      <c r="AR13" s="19"/>
+      <c r="AS13" s="19"/>
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="19"/>
+      <c r="AX13" s="19"/>
+      <c r="AY13" s="19"/>
+      <c r="AZ13" s="19"/>
+      <c r="BA13" s="19"/>
+      <c r="BB13" s="19"/>
+      <c r="BC13" s="19"/>
+      <c r="BD13" s="19"/>
+      <c r="BE13" s="19"/>
+      <c r="BF13" s="19"/>
+    </row>
+    <row r="14" spans="12:58" x14ac:dyDescent="0.3">
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+      <c r="AQ14" s="19"/>
+      <c r="AR14" s="19"/>
+      <c r="AS14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="19"/>
+      <c r="AZ14" s="19"/>
+      <c r="BA14" s="19"/>
+      <c r="BB14" s="19"/>
+      <c r="BC14" s="19"/>
+      <c r="BD14" s="19"/>
+      <c r="BE14" s="19"/>
+      <c r="BF14" s="19"/>
     </row>
     <row r="15" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="P15" s="14" t="s">
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="10" t="s">
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="18" t="s">
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="20"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="19"/>
+      <c r="AS15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
+      <c r="AY15" s="19"/>
+      <c r="AZ15" s="19"/>
+      <c r="BA15" s="19"/>
+      <c r="BB15" s="19"/>
+      <c r="BC15" s="19"/>
+      <c r="BD15" s="19"/>
+      <c r="BE15" s="19"/>
+      <c r="BF15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L15:O15"/>
     <mergeCell ref="AR11:BC11"/>
     <mergeCell ref="AN7:BF7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L15:N15"/>
     <mergeCell ref="P7:AD7"/>
     <mergeCell ref="P11:W11"/>
     <mergeCell ref="P15:X15"/>
@@ -1005,7 +1636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="G5:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1070,7 +1701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="G4:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1106,10 +1737,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="L4:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
@@ -1142,42 +1773,42 @@
       </c>
     </row>
     <row r="7" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="P7" s="10" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="P7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="17" t="s">
+      <c r="Q7" s="26"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="T7" s="13" t="s">
+      <c r="T7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="22"/>
+      <c r="U7" s="11"/>
     </row>
     <row r="11" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="P11" s="18" t="s">
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="P11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="13" t="s">
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="10" t="s">
+      <c r="T11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="12"/>
+      <c r="U11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/活頁簿1 (自動儲存).xlsx
+++ b/活頁簿1 (自動儲存).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Documents\GitHub\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing.Huang\Videos\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1694C2-A386-4110-9767-401FA495DA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="範例1_1" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Operation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,13 +112,33 @@
   </si>
   <si>
     <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -315,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,15 +398,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -407,6 +417,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,10 +725,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G5:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5:O8"/>
     </sheetView>
   </sheetViews>
@@ -856,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G4:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -902,10 +939,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L4:BF15"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4:BF15"/>
     </sheetView>
   </sheetViews>
@@ -1151,61 +1188,61 @@
       <c r="BF6" s="19"/>
     </row>
     <row r="7" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="30"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
-      <c r="AI7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="23"/>
-      <c r="AN7" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="22"/>
-      <c r="AR7" s="22"/>
-      <c r="AS7" s="22"/>
-      <c r="AT7" s="22"/>
-      <c r="AU7" s="22"/>
-      <c r="AV7" s="22"/>
-      <c r="AW7" s="22"/>
-      <c r="AX7" s="22"/>
-      <c r="AY7" s="22"/>
-      <c r="AZ7" s="22"/>
-      <c r="BA7" s="22"/>
-      <c r="BB7" s="22"/>
-      <c r="BC7" s="22"/>
-      <c r="BD7" s="22"/>
-      <c r="BE7" s="22"/>
-      <c r="BF7" s="22"/>
+      <c r="AI7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="35"/>
+      <c r="AQ7" s="35"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="19"/>
+      <c r="BA7" s="19"/>
+      <c r="BB7" s="19"/>
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="19"/>
+      <c r="BF7" s="19"/>
     </row>
     <row r="8" spans="12:58" x14ac:dyDescent="0.3">
       <c r="L8" s="15"/>
@@ -1355,58 +1392,56 @@
       <c r="BF10" s="19"/>
     </row>
     <row r="11" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
       <c r="X11" s="19"/>
-      <c r="Y11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="30"/>
       <c r="AN11" s="19"/>
       <c r="AO11" s="19"/>
       <c r="AP11" s="19"/>
       <c r="AQ11" s="19"/>
-      <c r="AR11" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS11" s="21"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="21"/>
-      <c r="AV11" s="21"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="21"/>
-      <c r="AZ11" s="21"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="21"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
+      <c r="AT11" s="19"/>
+      <c r="AU11" s="19"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="19"/>
+      <c r="AY11" s="19"/>
+      <c r="AZ11" s="19"/>
+      <c r="BA11" s="19"/>
+      <c r="BB11" s="19"/>
+      <c r="BC11" s="19"/>
       <c r="BD11" s="19"/>
       <c r="BE11" s="19"/>
       <c r="BF11" s="19"/>
@@ -1559,46 +1594,44 @@
       <c r="BF14" s="19"/>
     </row>
     <row r="15" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
-      <c r="AB15" s="23"/>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="23"/>
-      <c r="AH15" s="23"/>
-      <c r="AI15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="21"/>
-      <c r="AP15" s="21"/>
-      <c r="AQ15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+      <c r="AQ15" s="19"/>
       <c r="AR15" s="19"/>
       <c r="AS15" s="19"/>
       <c r="AT15" s="19"/>
@@ -1616,19 +1649,17 @@
       <c r="BF15" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="L15:O15"/>
-    <mergeCell ref="AR11:BC11"/>
-    <mergeCell ref="AN7:BF7"/>
     <mergeCell ref="P7:AD7"/>
     <mergeCell ref="P11:W11"/>
     <mergeCell ref="P15:X15"/>
     <mergeCell ref="Y15:AH15"/>
     <mergeCell ref="AI7:AM7"/>
-    <mergeCell ref="AI15:AQ15"/>
-    <mergeCell ref="Y11:AE11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AN7:AT7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1636,7 +1667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G5:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1701,7 +1732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G4:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1737,7 +1768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="L4:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1773,15 +1804,15 @@
       </c>
     </row>
     <row r="7" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="P7" s="25" t="s">
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="P7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="26"/>
+      <c r="Q7" s="23"/>
       <c r="R7" s="11"/>
       <c r="S7" s="10" t="s">
         <v>13</v>
@@ -1792,23 +1823,23 @@
       <c r="U7" s="11"/>
     </row>
     <row r="11" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L11" s="30" t="s">
+      <c r="L11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="P11" s="27" t="s">
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="P11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="29"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="25" t="s">
+      <c r="T11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="26"/>
+      <c r="U11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/活頁簿1 (自動儲存).xlsx
+++ b/活頁簿1 (自動儲存).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing.Huang\Videos\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB2\Videos\Genetic-Algorithm-for-Job-Shop-Scheduling-and-NSGA-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84883592-70E3-439E-ADCC-C4CA9FD12018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="範例1_1" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="26">
   <si>
     <t>Operation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,14 +132,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Job 3</t>
+    <t>Sequence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -334,7 +335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -401,6 +402,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,33 +448,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,21 +729,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G5:O16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="G5:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:O8"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="8.88671875" style="1"/>
     <col min="7" max="10" width="14.77734375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="20" width="12.77734375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G5" s="12" t="s">
         <v>14</v>
       </c>
@@ -762,8 +768,20 @@
       <c r="O5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="Q5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
@@ -788,8 +806,20 @@
       <c r="O6" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="Q6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
@@ -814,8 +844,20 @@
       <c r="O7" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="Q7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G8" s="6" t="s">
         <v>19</v>
       </c>
@@ -840,8 +882,20 @@
       <c r="O8" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="Q8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
@@ -855,7 +909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G13" s="12" t="s">
         <v>14</v>
       </c>
@@ -863,7 +917,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="15" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G15" s="2" t="s">
         <v>16</v>
       </c>
@@ -877,13 +931,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="7:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G16" s="12" t="s">
         <v>14</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -893,7 +969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="G4:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -939,7 +1015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="L4:BF15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
@@ -1188,61 +1264,61 @@
       <c r="BF6" s="19"/>
     </row>
     <row r="7" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="28" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="30"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="25"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
-      <c r="AI7" s="31" t="s">
+      <c r="AI7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="35"/>
-      <c r="AQ7" s="35"/>
-      <c r="AR7" s="35"/>
-      <c r="AS7" s="35"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="19"/>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="19"/>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="19"/>
-      <c r="BA7" s="19"/>
-      <c r="BB7" s="19"/>
-      <c r="BC7" s="19"/>
-      <c r="BD7" s="19"/>
-      <c r="BE7" s="19"/>
-      <c r="BF7" s="19"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="30"/>
+      <c r="AT7" s="30"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="30"/>
+      <c r="AX7" s="30"/>
+      <c r="AY7" s="30"/>
+      <c r="AZ7" s="30"/>
+      <c r="BA7" s="30"/>
+      <c r="BB7" s="30"/>
+      <c r="BC7" s="30"/>
+      <c r="BD7" s="30"/>
+      <c r="BE7" s="30"/>
+      <c r="BF7" s="31"/>
     </row>
     <row r="8" spans="12:58" x14ac:dyDescent="0.3">
       <c r="L8" s="15"/>
@@ -1392,56 +1468,58 @@
       <c r="BF10" s="19"/>
     </row>
     <row r="11" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="31" t="s">
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="28"/>
       <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="30"/>
+      <c r="Y11" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
       <c r="AN11" s="19"/>
       <c r="AO11" s="19"/>
       <c r="AP11" s="19"/>
       <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="19"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="19"/>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="19"/>
-      <c r="BB11" s="19"/>
-      <c r="BC11" s="19"/>
+      <c r="AR11" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS11" s="24"/>
+      <c r="AT11" s="24"/>
+      <c r="AU11" s="24"/>
+      <c r="AV11" s="24"/>
+      <c r="AW11" s="24"/>
+      <c r="AX11" s="24"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="24"/>
+      <c r="BA11" s="24"/>
+      <c r="BB11" s="24"/>
+      <c r="BC11" s="25"/>
       <c r="BD11" s="19"/>
       <c r="BE11" s="19"/>
       <c r="BF11" s="19"/>
@@ -1594,44 +1672,46 @@
       <c r="BF14" s="19"/>
     </row>
     <row r="15" spans="12:58" x14ac:dyDescent="0.3">
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="34" t="s">
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="31" t="s">
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="19"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="19"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="24"/>
+      <c r="AQ15" s="25"/>
       <c r="AR15" s="19"/>
       <c r="AS15" s="19"/>
       <c r="AT15" s="19"/>
@@ -1649,7 +1729,12 @@
       <c r="BF15" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="AI7:AM7"/>
+    <mergeCell ref="AI15:AQ15"/>
+    <mergeCell ref="Y11:AE11"/>
+    <mergeCell ref="AR11:BC11"/>
+    <mergeCell ref="AN7:BF7"/>
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="L15:O15"/>
@@ -1657,9 +1742,6 @@
     <mergeCell ref="P11:W11"/>
     <mergeCell ref="P15:X15"/>
     <mergeCell ref="Y15:AH15"/>
-    <mergeCell ref="AI7:AM7"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AN7:AT7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1667,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="G5:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1732,7 +1814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="G4:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1768,7 +1850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="L4:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1804,15 +1886,15 @@
       </c>
     </row>
     <row r="7" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="P7" s="22" t="s">
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="P7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="23"/>
+      <c r="Q7" s="33"/>
       <c r="R7" s="11"/>
       <c r="S7" s="10" t="s">
         <v>13</v>
@@ -1823,23 +1905,23 @@
       <c r="U7" s="11"/>
     </row>
     <row r="11" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="P11" s="24" t="s">
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="P11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="26"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="36"/>
       <c r="S11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="T11" s="22" t="s">
+      <c r="T11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="U11" s="23"/>
+      <c r="U11" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
